--- a/data/huiyan/人流风险和新增确诊/人流风险和新增确诊-考虑当天-n=3-sample_cnt=0.xlsx
+++ b/data/huiyan/人流风险和新增确诊/人流风险和新增确诊-考虑当天-n=3-sample_cnt=0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>上海</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
   </si>
 </sst>
 </file>
@@ -594,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP46"/>
+  <dimension ref="A1:CP47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12282,6 +12285,290 @@
         <v>10</v>
       </c>
     </row>
+    <row r="47" spans="1:94">
+      <c r="A47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.8406919262504449</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.8533388062113634</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.7332567756289278</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8334987625928436</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.8117524429958405</v>
+      </c>
+      <c r="O47" t="n">
+        <v>6</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.8867298795984867</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>8</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.665287925268305</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>9</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.5943678196686325</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.8036236487573339</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.379477151948769</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-0.01774010073180811</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0.8043666182429208</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0.8428197930342246</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.7424871712572059</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.9544549181504814</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0.7138991808214498</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0.7870930772154967</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0.401259796699757</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0.8714286467074086</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0.7678455122003162</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>0.4944282496585833</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>0.2837787317439083</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>0.7847602806735318</v>
+      </c>
+      <c r="BQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>0.8698900228812035</v>
+      </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV47" t="n">
+        <v>0.2591831470580999</v>
+      </c>
+      <c r="BW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY47" t="n">
+        <v>0.8378616754445445</v>
+      </c>
+      <c r="BZ47" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA47" t="n">
+        <v>9</v>
+      </c>
+      <c r="CB47" t="n">
+        <v>0.7939775035532779</v>
+      </c>
+      <c r="CC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD47" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE47" t="n">
+        <v>0.4362228955395837</v>
+      </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG47" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH47" t="n">
+        <v>0.6123389003617005</v>
+      </c>
+      <c r="CI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ47" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK47" t="n">
+        <v>0.5927669119450812</v>
+      </c>
+      <c r="CL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM47" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN47" t="n">
+        <v>0.885489619620473</v>
+      </c>
+      <c r="CO47" t="n">
+        <v>4</v>
+      </c>
+      <c r="CP47" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="B1:D1"/>
